--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC_AP.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IQ_DOC_AP.XLSX
@@ -145,7 +145,7 @@
     <t>FELIPE ALMEIDA*</t>
   </si>
   <si>
-    <t>NICOLY SILVEIRA*</t>
+    <t> </t>
   </si>
   <si>
     <t>4258</t>
@@ -163,7 +163,7 @@
     <t>4274</t>
   </si>
   <si>
-    <t>4291</t>
+    <t> </t>
   </si>
   <si>
     <t>SETOR IQ
@@ -3540,7 +3540,7 @@
       </c>
       <c r="S12" s="161" t="str">
         <f>L12</f>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="AB12" s="161" t="str">
         <f>L12</f>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="AH12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
@@ -3615,7 +3615,7 @@
       </c>
       <c r="AN12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
     </row>
     <row r="13" spans="1:40" s="100" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -3920,7 +3920,7 @@
       </c>
       <c r="S19" s="172" t="str">
         <f>L19</f>
-        <v>4291</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="AB19" s="172" t="str">
         <f>L19</f>
-        <v>4291</v>
+        <v> </v>
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="AH19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>4291</v>
+        <v> </v>
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
@@ -3995,7 +3995,7 @@
       </c>
       <c r="AN19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>4291</v>
+        <v> </v>
       </c>
     </row>
     <row r="20" spans="1:40" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="L12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
@@ -6650,7 +6650,7 @@
       </c>
       <c r="S12" s="161" t="str">
         <f>'Segunda a Sexta'!L12:L18</f>
-        <v>NICOLY SILVEIRA*</v>
+        <v> </v>
       </c>
       <c r="T12" s="189"/>
       <c r="U12" s="262"/>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="L19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>4291</v>
+        <v> </v>
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="S19" s="172" t="str">
         <f>'Segunda a Sexta'!L19:L20</f>
-        <v>4291</v>
+        <v> </v>
       </c>
       <c r="T19" s="209"/>
       <c r="U19" s="262"/>
